--- a/테이블명세서_강중현.xlsx
+++ b/테이블명세서_강중현.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinsu\OneDrive\바탕 화면\Workspace\wherego\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\spring\wherego\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D438FD74-E2D5-44D3-8092-C9DB1E2CE717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
-    <sheet name="cs_notice" sheetId="2" r:id="rId2"/>
-    <sheet name="cs_qna" sheetId="3" r:id="rId3"/>
+    <sheet name="admin_cs_notice" sheetId="2" r:id="rId2"/>
+    <sheet name="admin_cs_qna" sheetId="3" r:id="rId3"/>
+    <sheet name="cs_notice" sheetId="4" r:id="rId4"/>
+    <sheet name="cs_qna" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,10 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cs_notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,26 +159,6 @@
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -194,6 +171,50 @@
   </si>
   <si>
     <t>PK AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_cs_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_cs_qna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_cs_qna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_cs_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_qna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_notice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -204,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +273,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +283,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,14 +542,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -527,38 +599,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,187 +917,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
     <col min="3" max="7" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="29">
         <v>45187</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="F4" s="27"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A8:B8"/>
@@ -1031,11 +1101,27 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,34 +1130,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60244DF2-6FA8-43A3-BCB4-6319A4BA49C3}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1094,9 +1180,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>26</v>
@@ -1107,163 +1193,131 @@
       <c r="D3" s="10"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>40</v>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="16">
-        <v>0</v>
+      <c r="D4" s="9"/>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="16" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1275,38 +1329,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7A2E24-3861-46C9-9426-4B23E69C06E6}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1315,19 +1369,19 @@
       <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>26</v>
@@ -1336,165 +1390,566 @@
         <v>21</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>40</v>
+    <row r="4" spans="1:7">
+      <c r="A4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
+      <c r="A7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="45" customFormat="1">
+      <c r="A6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="26">
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="45" customFormat="1">
+      <c r="A7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/테이블명세서_강중현.xlsx
+++ b/테이블명세서_강중현.xlsx
@@ -9,14 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
     <sheet name="admin_cs_notice" sheetId="2" r:id="rId2"/>
     <sheet name="admin_cs_qna" sheetId="3" r:id="rId3"/>
-    <sheet name="cs_notice" sheetId="4" r:id="rId4"/>
-    <sheet name="cs_qna" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -203,22 +201,6 @@
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_qna</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_qna</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +255,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,24 +548,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -598,45 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,7 +870,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -932,164 +881,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="32">
         <v>45187</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A8:B8"/>
@@ -1101,27 +1062,11 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1148,14 +1093,14 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -1232,23 +1177,23 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
@@ -1332,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1347,14 +1292,14 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -1448,23 +1393,23 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
@@ -1543,419 +1488,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="45" customFormat="1">
-      <c r="A6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="25">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="45" customFormat="1">
-      <c r="A7" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>